--- a/biology/Médecine/Centre_hospitalier_universitaire_d'Angers/Centre_hospitalier_universitaire_d'Angers.xlsx
+++ b/biology/Médecine/Centre_hospitalier_universitaire_d'Angers/Centre_hospitalier_universitaire_d'Angers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le Centre hospitalier universitaire d'Angers est un centre hospitalier universitaire français qui emploie plus de 6 800 personnels hospitaliers dont plus de 1 200 personnels médicaux et pharmaceutiques. Il dispose de 1 729 lits et places et reçoit chaque année près de 100 000 passages aux urgences, 510 000 consultations externes et 110 000 hospitalisations. Il est actuellement dirigé par Cécile Jaglin-Grimonprez[1].
+Le Centre hospitalier universitaire d'Angers est un centre hospitalier universitaire français qui emploie plus de 6 800 personnels hospitaliers dont plus de 1 200 personnels médicaux et pharmaceutiques. Il dispose de 1 729 lits et places et reçoit chaque année près de 100 000 passages aux urgences, 510 000 consultations externes et 110 000 hospitalisations. Il est actuellement dirigé par Cécile Jaglin-Grimonprez.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 2000, le Centre hospitalier universitaire d'Angers est le premier CHU de France à être accrédité.
 En 2005, le Centre hospitalier universitaire d'Angers est le premier CHU de France à être certifié. Des experts-visiteurs de la Haute Autorité de Santé (HAS) ont procédé à la visite de certification du CHU. La procédure de certification se substitue à celle d'accréditation qui oblige tout établissement de santé public ou privé à se soumettre régulièrement à une évaluation réalisée par un organisme indépendant qui est désormais l'HAS et qui a pris la place de l'Agence Nationale d'Accréditation et d'Évaluation en Santé (ANAES).
-En 2015, le Centre hospitalier universitaire d'Angers est le premier CHU de France à être certifié sans réserve sur ses comptes[2].</t>
+En 2015, le Centre hospitalier universitaire d'Angers est le premier CHU de France à être certifié sans réserve sur ses comptes.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Soins</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Centre hospitalier universitaire d'Angers (CHU) est un pôle de référence et d'appel en matière de Santé qui, à ce titre, a 4 missions : soins, enseignement, recherche et prévention. Le CHU d'Angers a une vocation régionale, voire interrégionale pour les soins hautement spécialisés : Les partenaires du CHU d'Angers sont : le CHU de Nantes, le centre hospitalier du Mans, l'Institut de cancérologie de l'Ouest et l'ensemble des établissements de soins de la région susceptibles de prendre en charge certains types de pathologie.
 S'inscrivant dans une dynamique Qualité, le CHU d'Angers place au tout premier plan celle du service aux patients. Souci de la qualité qu'il se doit de maintenir du fait même qu'il est l'un des premiers opérateurs Santé de la région avec 110 187 personnes hospitalisées (en 2021).
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,14 +597,93 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Faculté de santé
-Le pôle formation du CHU d'Angers comprend la Faculté de santé[3] située sur le site du CHU, elle comprend les Départements de Médecine (anciennement "Faculté de Médecine"), de Pharmacie (anciennement "Faculté de Pharmacie") ainsi que l'école de Sages-Femmes.
+          <t>Faculté de santé</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pôle formation du CHU d'Angers comprend la Faculté de santé située sur le site du CHU, elle comprend les Départements de Médecine (anciennement "Faculté de Médecine"), de Pharmacie (anciennement "Faculté de Pharmacie") ainsi que l'école de Sages-Femmes.
 Les différents services hospitaliers accueillent environ 500 étudiants et 400 internes. Le CHU gère administrativement plus de 600 étudiants et internes pour l'ensemble de la subdivision.
-Dans un groupement d'intérêt scientifique avec l'université, le CHU d'Angers est par ailleurs doté d'un centre de simulation (au sein du centre Robert-Debré) destiné à la formation des étudiants sur des mannequins mimant des situations pathologiques ainsi que des logiciels[4].
-École de sages-femmes
-L'école de sages-femmes René Rouchy prépare au diplôme d’État de sages-femmes. La profession de sage-femme est une profession médicale réglementée par le code de la Santé Publique et le code de déontologie des sages-femmes[5].
-Enseignement paramédical
-Le centre d'enseignement de soins d'urgence
+Dans un groupement d'intérêt scientifique avec l'université, le CHU d'Angers est par ailleurs doté d'un centre de simulation (au sein du centre Robert-Debré) destiné à la formation des étudiants sur des mannequins mimant des situations pathologiques ainsi que des logiciels.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Faculté de santé</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>École de sages-femmes</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'école de sages-femmes René Rouchy prépare au diplôme d’État de sages-femmes. La profession de sage-femme est une profession médicale réglementée par le code de la Santé Publique et le code de déontologie des sages-femmes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_d%27Angers</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Formation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Enseignement paramédical</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le centre d'enseignement de soins d'urgence
 L'institut de formation d'aides-soignants
 L'école de puéricultrices
 L'institut de formation des cadres de santé
@@ -597,31 +692,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_d%27Angers</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Projet médical</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le projet médical répond aux axes majeurs du schéma régional d'organisation sanitaire (SROS) :
 création d'un service de médecine interne et générale dans le cadre du Service d'Accueil et de Traitement des Urgences ;
@@ -634,64 +731,68 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_d%27Angers</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centre antipoison inter-régional</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le CHU d'Angers est également un centre antipoison et de toxicovigilance inter-régional qui couvre la région des Pays de la Loire ainsi que la région Centre, la Bretagne et la Normandie.
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Centre_hospitalier_universitaire_d%27Angers</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Centre_hospitalier_universitaire_d'Angers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Centre_hospitalier_universitaire_d%27Angers</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Monuments historiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'enceinte du CHU, la chapelle Sainte-Marie (anciennement hôtel-Dieu ou hôpital Saint-Jean, fin XIIe siècle)[6], ainsi que ses peintures murales (1857-1868, huile sur enduit, cire, fresque, toiles marouflées, artistes principaux Jules Dauban, Eugène Appert, Jules Lenepveu) sont classées monuments historiques en 1930[7],[8].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'enceinte du CHU, la chapelle Sainte-Marie (anciennement hôtel-Dieu ou hôpital Saint-Jean, fin XIIe siècle), ainsi que ses peintures murales (1857-1868, huile sur enduit, cire, fresque, toiles marouflées, artistes principaux Jules Dauban, Eugène Appert, Jules Lenepveu) sont classées monuments historiques en 1930,.
 			Chapelle Sainte-Marie, coupole
 			Chapelle Sainte-Marie, Bénédiction de la chapelle
 			Chapelle Sainte-Marie, présentation au Temple
